--- a/Code/Results/Cases/Case_3_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.7450338003692</v>
+        <v>11.2475347124312</v>
       </c>
       <c r="C2">
-        <v>12.66960294482363</v>
+        <v>8.263854200641449</v>
       </c>
       <c r="D2">
-        <v>2.870256515285956</v>
+        <v>3.886335313579849</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.67566491293879</v>
+        <v>24.07170157423461</v>
       </c>
       <c r="G2">
-        <v>37.10802811872561</v>
+        <v>29.52698303746906</v>
       </c>
       <c r="H2">
-        <v>10.77842870384507</v>
+        <v>13.65507026307969</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.99264171708062</v>
+        <v>19.96853898132113</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.5394323048452</v>
+        <v>10.71492775045894</v>
       </c>
       <c r="C3">
-        <v>12.01954893405647</v>
+        <v>7.922581529107058</v>
       </c>
       <c r="D3">
-        <v>2.924919048340674</v>
+        <v>3.892723106426581</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.37171034178365</v>
+        <v>23.82015167278259</v>
       </c>
       <c r="G3">
-        <v>34.95199651108415</v>
+        <v>28.96322266574675</v>
       </c>
       <c r="H3">
-        <v>10.49802367038339</v>
+        <v>13.64876489467059</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.66308645010942</v>
+        <v>19.36414585261561</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.75773686005542</v>
+        <v>10.37589454253218</v>
       </c>
       <c r="C4">
-        <v>11.60069795328935</v>
+        <v>7.703418244744816</v>
       </c>
       <c r="D4">
-        <v>2.958084418552926</v>
+        <v>3.896783410241674</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.57004694918184</v>
+        <v>23.67348880842128</v>
       </c>
       <c r="G4">
-        <v>33.61633225948399</v>
+        <v>28.62493826143402</v>
       </c>
       <c r="H4">
-        <v>10.33501670017468</v>
+        <v>13.64855803436505</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.18560253746731</v>
+        <v>18.99168008987713</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.42873341541725</v>
+        <v>10.23491323021945</v>
       </c>
       <c r="C5">
-        <v>11.4251523986661</v>
+        <v>7.611759913204648</v>
       </c>
       <c r="D5">
-        <v>2.971532976333823</v>
+        <v>3.898473348474039</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.24340106248937</v>
+        <v>23.61574415374162</v>
       </c>
       <c r="G5">
-        <v>33.06947905293676</v>
+        <v>28.48927497503779</v>
       </c>
       <c r="H5">
-        <v>10.27085774557669</v>
+        <v>13.6493928279958</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.57068699374374</v>
+        <v>18.83980783706242</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.37347034803815</v>
+        <v>10.21133927762106</v>
       </c>
       <c r="C6">
-        <v>11.39571279764437</v>
+        <v>7.596400634200308</v>
       </c>
       <c r="D6">
-        <v>2.973762977203041</v>
+        <v>3.898756112672826</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.18917430589357</v>
+        <v>23.60627953415904</v>
       </c>
       <c r="G6">
-        <v>32.97853530707561</v>
+        <v>28.46688659580859</v>
       </c>
       <c r="H6">
-        <v>10.26034009388088</v>
+        <v>13.64958687157188</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.46777987792049</v>
+        <v>18.81459182937592</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.75334217800933</v>
+        <v>10.37400436462951</v>
       </c>
       <c r="C7">
-        <v>11.59835002402007</v>
+        <v>7.7021915110846</v>
       </c>
       <c r="D7">
-        <v>2.958266018957109</v>
+        <v>3.896806057500229</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.56564108158832</v>
+        <v>23.67270177899914</v>
       </c>
       <c r="G7">
-        <v>33.60896689519985</v>
+        <v>28.62309951298588</v>
       </c>
       <c r="H7">
-        <v>10.33414229626814</v>
+        <v>13.64856557499311</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.17736270883999</v>
+        <v>18.98963190478101</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.33792284391645</v>
+        <v>11.06649417296349</v>
       </c>
       <c r="C8">
-        <v>12.44960994138973</v>
+        <v>8.148219911062412</v>
       </c>
       <c r="D8">
-        <v>2.889208152677476</v>
+        <v>3.888509497530909</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.22642778359961</v>
+        <v>23.98338967033638</v>
       </c>
       <c r="G8">
-        <v>36.36729048252381</v>
+        <v>29.3310941698613</v>
       </c>
       <c r="H8">
-        <v>10.67982092679475</v>
+        <v>13.65213431839109</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.19855683229725</v>
+        <v>19.76057610694909</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.11830279808947</v>
+        <v>12.32189773246078</v>
       </c>
       <c r="C9">
-        <v>13.95885644106215</v>
+        <v>8.943902716147695</v>
       </c>
       <c r="D9">
-        <v>2.748853358474433</v>
+        <v>3.873310264554926</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.46670263825287</v>
+        <v>24.65145310088139</v>
       </c>
       <c r="G9">
-        <v>41.67275342015978</v>
+        <v>30.77242873923063</v>
       </c>
       <c r="H9">
-        <v>11.43228191874121</v>
+        <v>13.68828871363744</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.80270065607758</v>
+        <v>21.25110361432481</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.96467763054056</v>
+        <v>13.17370492927803</v>
       </c>
       <c r="C10">
-        <v>14.96558333232861</v>
+        <v>9.477424420112531</v>
       </c>
       <c r="D10">
-        <v>2.63966826052024</v>
+        <v>3.862760399131219</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.83394929821218</v>
+        <v>25.17381652207041</v>
       </c>
       <c r="G10">
-        <v>45.51204897755699</v>
+        <v>31.8510136040202</v>
       </c>
       <c r="H10">
-        <v>12.03412044772029</v>
+        <v>13.73269027763679</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.82007757230494</v>
+        <v>22.32034253671616</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.76261225069749</v>
+        <v>13.5446277780731</v>
       </c>
       <c r="C11">
-        <v>15.40033795693975</v>
+        <v>9.708583484889111</v>
       </c>
       <c r="D11">
-        <v>2.58775372727022</v>
+        <v>3.858087510881728</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.90985730226904</v>
+        <v>25.41731968459154</v>
       </c>
       <c r="G11">
-        <v>47.30378875751978</v>
+        <v>32.34334116611193</v>
       </c>
       <c r="H11">
-        <v>12.31977538856012</v>
+        <v>13.7567619499317</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.65612793301456</v>
+        <v>22.79877583828171</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.0587647165177</v>
+        <v>13.68262117814696</v>
       </c>
       <c r="C12">
-        <v>15.5615133053249</v>
+        <v>9.794426884345887</v>
       </c>
       <c r="D12">
-        <v>2.567666277837852</v>
+        <v>3.856335583375187</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.3572656790594</v>
+        <v>25.51028813666762</v>
       </c>
       <c r="G12">
-        <v>47.98080729641861</v>
+        <v>32.5298046883828</v>
       </c>
       <c r="H12">
-        <v>12.42980541257298</v>
+        <v>13.76643280153437</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.35618264606664</v>
+        <v>22.97862599430049</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.99524995824441</v>
+        <v>13.65301274425614</v>
       </c>
       <c r="C13">
-        <v>15.5269573943211</v>
+        <v>9.776014651329518</v>
       </c>
       <c r="D13">
-        <v>2.572013568338012</v>
+        <v>3.856712118781648</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.25972705171522</v>
+        <v>25.49023333632165</v>
       </c>
       <c r="G13">
-        <v>47.83504800446183</v>
+        <v>32.4896483735222</v>
       </c>
       <c r="H13">
-        <v>12.40602277907363</v>
+        <v>13.76432533992179</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.20513086967193</v>
+        <v>22.93995346730165</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.7870972091571</v>
+        <v>13.55603045357605</v>
       </c>
       <c r="C14">
-        <v>15.41366805619988</v>
+        <v>9.715679936207716</v>
       </c>
       <c r="D14">
-        <v>2.586110431367564</v>
+        <v>3.857943029376946</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.94338737385138</v>
+        <v>25.42495353809243</v>
       </c>
       <c r="G14">
-        <v>47.35951109679028</v>
+        <v>32.35868221280798</v>
       </c>
       <c r="H14">
-        <v>12.32878930255651</v>
+        <v>13.75754645645891</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.71360133799276</v>
+        <v>22.813599663564</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.65881574061192</v>
+        <v>13.49630246102696</v>
       </c>
       <c r="C15">
-        <v>15.34382067837647</v>
+        <v>9.678502045940055</v>
       </c>
       <c r="D15">
-        <v>2.594685673018218</v>
+        <v>3.85869927214525</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.76806071555848</v>
+        <v>25.38506406186352</v>
       </c>
       <c r="G15">
-        <v>47.06806918040746</v>
+        <v>32.2784594223692</v>
       </c>
       <c r="H15">
-        <v>12.28172907946114</v>
+        <v>13.753466470035</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.41327388268181</v>
+        <v>22.73602719781077</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.91168879173771</v>
+        <v>13.1491232852912</v>
       </c>
       <c r="C16">
-        <v>14.93669468372668</v>
+        <v>9.462082529151756</v>
       </c>
       <c r="D16">
-        <v>2.643007474141592</v>
+        <v>3.863068276144054</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.76364335990208</v>
+        <v>25.158013952211</v>
       </c>
       <c r="G16">
-        <v>45.39522671826307</v>
+        <v>31.81885429509699</v>
       </c>
       <c r="H16">
-        <v>12.01570286822652</v>
+        <v>13.73119496220733</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.70053744168535</v>
+        <v>22.28889997214678</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.44262298613119</v>
+        <v>12.93183159981898</v>
       </c>
       <c r="C17">
-        <v>14.68091724512693</v>
+        <v>9.326335500926517</v>
       </c>
       <c r="D17">
-        <v>2.67201019860234</v>
+        <v>3.865780460727885</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.1474173938045</v>
+        <v>25.02017052766331</v>
       </c>
       <c r="G17">
-        <v>44.39877553899271</v>
+        <v>31.5371774025777</v>
       </c>
       <c r="H17">
-        <v>11.85563708663642</v>
+        <v>13.71852328076846</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.65420608492842</v>
+        <v>22.0124298647587</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.16887533943279</v>
+        <v>12.80529568890266</v>
       </c>
       <c r="C18">
-        <v>14.53162475313194</v>
+        <v>9.247172473937669</v>
       </c>
       <c r="D18">
-        <v>2.688488197634054</v>
+        <v>3.86735235892036</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.79285769780962</v>
+        <v>24.94144509063851</v>
       </c>
       <c r="G18">
-        <v>43.82477452635765</v>
+        <v>31.37533398585553</v>
       </c>
       <c r="H18">
-        <v>11.76467758999715</v>
+        <v>13.71159956624242</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.05292049396147</v>
+        <v>21.85267090783623</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.07550887066222</v>
+        <v>12.7621884682957</v>
       </c>
       <c r="C19">
-        <v>14.48070620591364</v>
+        <v>9.220183952303023</v>
       </c>
       <c r="D19">
-        <v>2.694035135137263</v>
+        <v>3.867886641525253</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.67278082325744</v>
+        <v>24.91488853033221</v>
       </c>
       <c r="G19">
-        <v>43.63026090139814</v>
+        <v>31.32057229542021</v>
       </c>
       <c r="H19">
-        <v>11.73406649649421</v>
+        <v>13.70931798739232</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.84933689998725</v>
+        <v>21.7984577207549</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.49296472305754</v>
+        <v>12.95512431591213</v>
       </c>
       <c r="C20">
-        <v>14.70837115250725</v>
+        <v>9.340898536506204</v>
       </c>
       <c r="D20">
-        <v>2.668944549062043</v>
+        <v>3.86549051436763</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.2130264000159</v>
+        <v>25.03478701789123</v>
       </c>
       <c r="G20">
-        <v>44.50493499382196</v>
+        <v>31.56714638276706</v>
       </c>
       <c r="H20">
-        <v>11.87256096319851</v>
+        <v>13.71983446634611</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.76551211523224</v>
+        <v>22.0419385683425</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.84839964419094</v>
+        <v>13.58458405925349</v>
       </c>
       <c r="C21">
-        <v>15.44703884845249</v>
+        <v>9.733447838099021</v>
       </c>
       <c r="D21">
-        <v>2.581982476417947</v>
+        <v>3.857581008097329</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.03490804420777</v>
+        <v>25.44410788626506</v>
       </c>
       <c r="G21">
-        <v>47.4992195704642</v>
+        <v>32.39715097861318</v>
       </c>
       <c r="H21">
-        <v>12.35142271117735</v>
+        <v>13.75952252048997</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.85781134468233</v>
+        <v>22.85075003856932</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.69922965124549</v>
+        <v>13.98156326325118</v>
       </c>
       <c r="C22">
-        <v>15.90956187294698</v>
+        <v>9.980130949339236</v>
       </c>
       <c r="D22">
-        <v>2.522574019597002</v>
+        <v>3.85251397965713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.35124682609158</v>
+        <v>25.71600687388121</v>
       </c>
       <c r="G22">
-        <v>49.46820433101774</v>
+        <v>32.93968906354509</v>
       </c>
       <c r="H22">
-        <v>12.67533709990166</v>
+        <v>13.78869720156525</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.90932074979676</v>
+        <v>23.37157916598345</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.24832715798109</v>
+        <v>13.77103068253317</v>
       </c>
       <c r="C23">
-        <v>15.66460784887249</v>
+        <v>9.849383806978922</v>
       </c>
       <c r="D23">
-        <v>2.554561185343141</v>
+        <v>3.855209174471347</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.64946806443776</v>
+        <v>25.57051675553482</v>
       </c>
       <c r="G23">
-        <v>48.41767949135045</v>
+        <v>32.65018611786212</v>
       </c>
       <c r="H23">
-        <v>12.5013897110725</v>
+        <v>13.77283070705358</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.81008003248085</v>
+        <v>23.09436804819591</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.47021792061722</v>
+        <v>12.94459869350832</v>
       </c>
       <c r="C24">
-        <v>14.69596621793389</v>
+        <v>9.334318074994748</v>
       </c>
       <c r="D24">
-        <v>2.670331132386024</v>
+        <v>3.865621559743161</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.18336547490993</v>
+        <v>25.02817726840984</v>
       </c>
       <c r="G24">
-        <v>44.45694386942099</v>
+        <v>31.55359709051584</v>
       </c>
       <c r="H24">
-        <v>11.86490637362652</v>
+        <v>13.71924055354745</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.71519008670008</v>
+        <v>22.02860020098348</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.40084282163557</v>
+        <v>11.99417181612458</v>
       </c>
       <c r="C25">
-        <v>13.56817582366136</v>
+        <v>8.737436798342815</v>
       </c>
       <c r="D25">
-        <v>2.787629383357399</v>
+        <v>3.877311170978883</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.59265344967272</v>
+        <v>24.46486037857789</v>
       </c>
       <c r="G25">
-        <v>40.24917951854682</v>
+        <v>30.37815568248895</v>
       </c>
       <c r="H25">
-        <v>11.22043045495755</v>
+        <v>13.67537705923278</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.31242817810313</v>
+        <v>20.85155013784399</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.2475347124312</v>
+        <v>18.74503380036916</v>
       </c>
       <c r="C2">
-        <v>8.263854200641449</v>
+        <v>12.66960294482373</v>
       </c>
       <c r="D2">
-        <v>3.886335313579849</v>
+        <v>2.870256515285893</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.07170157423461</v>
+        <v>25.67566491293876</v>
       </c>
       <c r="G2">
-        <v>29.52698303746906</v>
+        <v>37.10802811872554</v>
       </c>
       <c r="H2">
-        <v>13.65507026307969</v>
+        <v>10.77842870384506</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96853898132113</v>
+        <v>29.99264171708058</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.71492775045894</v>
+        <v>17.53943230484504</v>
       </c>
       <c r="C3">
-        <v>7.922581529107058</v>
+        <v>12.01954893405651</v>
       </c>
       <c r="D3">
-        <v>3.892723106426581</v>
+        <v>2.924919048340744</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.82015167278259</v>
+        <v>24.37171034178366</v>
       </c>
       <c r="G3">
-        <v>28.96322266574675</v>
+        <v>34.95199651108412</v>
       </c>
       <c r="H3">
-        <v>13.64876489467059</v>
+        <v>10.49802367038344</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.36414585261561</v>
+        <v>27.66308645010949</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.37589454253218</v>
+        <v>16.75773686005543</v>
       </c>
       <c r="C4">
-        <v>7.703418244744816</v>
+        <v>11.60069795328935</v>
       </c>
       <c r="D4">
-        <v>3.896783410241674</v>
+        <v>2.958084418552986</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.67348880842128</v>
+        <v>23.57004694918179</v>
       </c>
       <c r="G4">
-        <v>28.62493826143402</v>
+        <v>33.61633225948395</v>
       </c>
       <c r="H4">
-        <v>13.64855803436505</v>
+        <v>10.33501670017467</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.99168008987713</v>
+        <v>26.18560253746728</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.23491323021945</v>
+        <v>16.42873341541725</v>
       </c>
       <c r="C5">
-        <v>7.611759913204648</v>
+        <v>11.42515239866632</v>
       </c>
       <c r="D5">
-        <v>3.898473348474039</v>
+        <v>2.971532976333751</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.61574415374162</v>
+        <v>23.24340106248928</v>
       </c>
       <c r="G5">
-        <v>28.48927497503779</v>
+        <v>33.0694790529367</v>
       </c>
       <c r="H5">
-        <v>13.6493928279958</v>
+        <v>10.27085774557661</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83980783706242</v>
+        <v>25.57068699374371</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.21133927762106</v>
+        <v>16.37347034803813</v>
       </c>
       <c r="C6">
-        <v>7.596400634200308</v>
+        <v>11.39571279764438</v>
       </c>
       <c r="D6">
-        <v>3.898756112672826</v>
+        <v>2.973762977203105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.60627953415904</v>
+        <v>23.18917430589352</v>
       </c>
       <c r="G6">
-        <v>28.46688659580859</v>
+        <v>32.97853530707555</v>
       </c>
       <c r="H6">
-        <v>13.64958687157188</v>
+        <v>10.26034009388088</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.81459182937592</v>
+        <v>25.46777987792052</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37400436462951</v>
+        <v>16.75334217800926</v>
       </c>
       <c r="C7">
-        <v>7.7021915110846</v>
+        <v>11.59835002402001</v>
       </c>
       <c r="D7">
-        <v>3.896806057500229</v>
+        <v>2.958266018957176</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.67270177899914</v>
+        <v>23.56564108158832</v>
       </c>
       <c r="G7">
-        <v>28.62309951298588</v>
+        <v>33.60896689519988</v>
       </c>
       <c r="H7">
-        <v>13.64856557499311</v>
+        <v>10.3341422962682</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98963190478101</v>
+        <v>26.17736270883998</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.06649417296349</v>
+        <v>18.33792284391654</v>
       </c>
       <c r="C8">
-        <v>8.148219911062412</v>
+        <v>12.4496099413898</v>
       </c>
       <c r="D8">
-        <v>3.888509497530909</v>
+        <v>2.889208152677286</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.98338967033638</v>
+        <v>25.22642778359965</v>
       </c>
       <c r="G8">
-        <v>29.3310941698613</v>
+        <v>36.36729048252385</v>
       </c>
       <c r="H8">
-        <v>13.65213431839109</v>
+        <v>10.67982092679476</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76057610694909</v>
+        <v>29.1985568322973</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.32189773246078</v>
+        <v>21.11830279808952</v>
       </c>
       <c r="C9">
-        <v>8.943902716147695</v>
+        <v>13.9588564410623</v>
       </c>
       <c r="D9">
-        <v>3.873310264554926</v>
+        <v>2.748853358474373</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.65145310088139</v>
+        <v>28.46670263825289</v>
       </c>
       <c r="G9">
-        <v>30.77242873923063</v>
+        <v>41.67275342015984</v>
       </c>
       <c r="H9">
-        <v>13.68828871363744</v>
+        <v>11.43228191874122</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25110361432481</v>
+        <v>34.8027006560776</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.17370492927803</v>
+        <v>22.9646776305406</v>
       </c>
       <c r="C10">
-        <v>9.477424420112531</v>
+        <v>14.96558333232878</v>
       </c>
       <c r="D10">
-        <v>3.862760399131219</v>
+        <v>2.639668260520309</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.17381652207041</v>
+        <v>30.83394929821216</v>
       </c>
       <c r="G10">
-        <v>31.8510136040202</v>
+        <v>45.51204897755695</v>
       </c>
       <c r="H10">
-        <v>13.73269027763679</v>
+        <v>12.0341204477203</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32034253671616</v>
+        <v>38.82007757230495</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.5446277780731</v>
+        <v>23.76261225069744</v>
       </c>
       <c r="C11">
-        <v>9.708583484889111</v>
+        <v>15.40033795693971</v>
       </c>
       <c r="D11">
-        <v>3.858087510881728</v>
+        <v>2.587753727270349</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.41731968459154</v>
+        <v>31.90985730226891</v>
       </c>
       <c r="G11">
-        <v>32.34334116611193</v>
+        <v>47.30378875751951</v>
       </c>
       <c r="H11">
-        <v>13.7567619499317</v>
+        <v>12.3197753885601</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.79877583828171</v>
+        <v>40.65612793301438</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.68262117814696</v>
+        <v>24.05876471651781</v>
       </c>
       <c r="C12">
-        <v>9.794426884345887</v>
+        <v>15.56151330532492</v>
       </c>
       <c r="D12">
-        <v>3.856335583375187</v>
+        <v>2.567666277837924</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.51028813666762</v>
+        <v>32.35726567905947</v>
       </c>
       <c r="G12">
-        <v>32.5298046883828</v>
+        <v>47.98080729641872</v>
       </c>
       <c r="H12">
-        <v>13.76643280153437</v>
+        <v>12.42980541257299</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.97862599430049</v>
+        <v>41.35618264606663</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.65301274425614</v>
+        <v>23.99524995824438</v>
       </c>
       <c r="C13">
-        <v>9.776014651329518</v>
+        <v>15.52695739432109</v>
       </c>
       <c r="D13">
-        <v>3.856712118781648</v>
+        <v>2.572013568338198</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.49023333632165</v>
+        <v>32.25972705171515</v>
       </c>
       <c r="G13">
-        <v>32.4896483735222</v>
+        <v>47.83504800446171</v>
       </c>
       <c r="H13">
-        <v>13.76432533992179</v>
+        <v>12.40602277907363</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.93995346730165</v>
+        <v>41.20513086967203</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.55603045357605</v>
+        <v>23.78709720915718</v>
       </c>
       <c r="C14">
-        <v>9.715679936207716</v>
+        <v>15.41366805619984</v>
       </c>
       <c r="D14">
-        <v>3.857943029376946</v>
+        <v>2.586110431367629</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.42495353809243</v>
+        <v>31.94338737385134</v>
       </c>
       <c r="G14">
-        <v>32.35868221280798</v>
+        <v>47.35951109679025</v>
       </c>
       <c r="H14">
-        <v>13.75754645645891</v>
+        <v>12.32878930255649</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.813599663564</v>
+        <v>40.71360133799278</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.49630246102696</v>
+        <v>23.65881574061192</v>
       </c>
       <c r="C15">
-        <v>9.678502045940055</v>
+        <v>15.34382067837662</v>
       </c>
       <c r="D15">
-        <v>3.85869927214525</v>
+        <v>2.594685673018348</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.38506406186352</v>
+        <v>31.76806071555853</v>
       </c>
       <c r="G15">
-        <v>32.2784594223692</v>
+        <v>47.06806918040753</v>
       </c>
       <c r="H15">
-        <v>13.753466470035</v>
+        <v>12.28172907946118</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.73602719781077</v>
+        <v>40.41327388268184</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.1491232852912</v>
+        <v>22.91168879173778</v>
       </c>
       <c r="C16">
-        <v>9.462082529151756</v>
+        <v>14.93669468372685</v>
       </c>
       <c r="D16">
-        <v>3.863068276144054</v>
+        <v>2.643007474141532</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.158013952211</v>
+        <v>30.76364335990205</v>
       </c>
       <c r="G16">
-        <v>31.81885429509699</v>
+        <v>45.39522671826303</v>
       </c>
       <c r="H16">
-        <v>13.73119496220733</v>
+        <v>12.01570286822649</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.28889997214678</v>
+        <v>38.70053744168533</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.93183159981898</v>
+        <v>22.44262298613114</v>
       </c>
       <c r="C17">
-        <v>9.326335500926517</v>
+        <v>14.68091724512693</v>
       </c>
       <c r="D17">
-        <v>3.865780460727885</v>
+        <v>2.672010198602479</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.02017052766331</v>
+        <v>30.14741739380447</v>
       </c>
       <c r="G17">
-        <v>31.5371774025777</v>
+        <v>44.39877553899261</v>
       </c>
       <c r="H17">
-        <v>13.71852328076846</v>
+        <v>11.8556370866364</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.0124298647587</v>
+        <v>37.65420608492842</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.80529568890266</v>
+        <v>22.16887533943292</v>
       </c>
       <c r="C18">
-        <v>9.247172473937669</v>
+        <v>14.53162475313176</v>
       </c>
       <c r="D18">
-        <v>3.86735235892036</v>
+        <v>2.688488197634185</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.94144509063851</v>
+        <v>29.79285769780958</v>
       </c>
       <c r="G18">
-        <v>31.37533398585553</v>
+        <v>43.82477452635765</v>
       </c>
       <c r="H18">
-        <v>13.71159956624242</v>
+        <v>11.76467758999712</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85267090783623</v>
+        <v>37.05292049396135</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.7621884682957</v>
+        <v>22.07550887066234</v>
       </c>
       <c r="C19">
-        <v>9.220183952303023</v>
+        <v>14.48070620591371</v>
       </c>
       <c r="D19">
-        <v>3.867886641525253</v>
+        <v>2.694035135137004</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.91488853033221</v>
+        <v>29.67278082325745</v>
       </c>
       <c r="G19">
-        <v>31.32057229542021</v>
+        <v>43.63026090139824</v>
       </c>
       <c r="H19">
-        <v>13.70931798739232</v>
+        <v>11.73406649649419</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.7984577207549</v>
+        <v>36.84933689998723</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.95512431591213</v>
+        <v>22.49296472305759</v>
       </c>
       <c r="C20">
-        <v>9.340898536506204</v>
+        <v>14.70837115250719</v>
       </c>
       <c r="D20">
-        <v>3.86549051436763</v>
+        <v>2.668944549061846</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.03478701789123</v>
+        <v>30.2130264000159</v>
       </c>
       <c r="G20">
-        <v>31.56714638276706</v>
+        <v>44.50493499382199</v>
       </c>
       <c r="H20">
-        <v>13.71983446634611</v>
+        <v>11.87256096319853</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.0419385683425</v>
+        <v>37.76551211523224</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.58458405925349</v>
+        <v>23.84839964419083</v>
       </c>
       <c r="C21">
-        <v>9.733447838099021</v>
+        <v>15.44703884845254</v>
       </c>
       <c r="D21">
-        <v>3.857581008097329</v>
+        <v>2.581982476418077</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.44410788626506</v>
+        <v>32.03490804420772</v>
       </c>
       <c r="G21">
-        <v>32.39715097861318</v>
+        <v>47.49921957046408</v>
       </c>
       <c r="H21">
-        <v>13.75952252048997</v>
+        <v>12.35142271117735</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.85075003856932</v>
+        <v>40.85781134468242</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.98156326325118</v>
+        <v>24.6992296512454</v>
       </c>
       <c r="C22">
-        <v>9.980130949339236</v>
+        <v>15.90956187294699</v>
       </c>
       <c r="D22">
-        <v>3.85251397965713</v>
+        <v>2.522574019597196</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.71600687388121</v>
+        <v>33.3512468260915</v>
       </c>
       <c r="G22">
-        <v>32.93968906354509</v>
+        <v>49.4682043310176</v>
       </c>
       <c r="H22">
-        <v>13.78869720156525</v>
+        <v>12.67533709990165</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.37157916598345</v>
+        <v>42.90932074979681</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.77103068253317</v>
+        <v>24.24832715798105</v>
       </c>
       <c r="C23">
-        <v>9.849383806978922</v>
+        <v>15.66460784887243</v>
       </c>
       <c r="D23">
-        <v>3.855209174471347</v>
+        <v>2.55456118534315</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.57051675553482</v>
+        <v>32.64946806443765</v>
       </c>
       <c r="G23">
-        <v>32.65018611786212</v>
+        <v>48.41767949135029</v>
       </c>
       <c r="H23">
-        <v>13.77283070705358</v>
+        <v>12.50138971107251</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.09436804819591</v>
+        <v>41.81008003248068</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.94459869350832</v>
+        <v>22.4702179206173</v>
       </c>
       <c r="C24">
-        <v>9.334318074994748</v>
+        <v>14.69596621793388</v>
       </c>
       <c r="D24">
-        <v>3.865621559743161</v>
+        <v>2.670331132385896</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.02817726840984</v>
+        <v>30.18336547490998</v>
       </c>
       <c r="G24">
-        <v>31.55359709051584</v>
+        <v>44.45694386942108</v>
       </c>
       <c r="H24">
-        <v>13.71924055354745</v>
+        <v>11.86490637362648</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02860020098348</v>
+        <v>37.7151900867001</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.99417181612458</v>
+        <v>20.40084282163584</v>
       </c>
       <c r="C25">
-        <v>8.737436798342815</v>
+        <v>13.56817582366118</v>
       </c>
       <c r="D25">
-        <v>3.877311170978883</v>
+        <v>2.787629383357201</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.46486037857789</v>
+        <v>27.59265344967271</v>
       </c>
       <c r="G25">
-        <v>30.37815568248895</v>
+        <v>40.24917951854691</v>
       </c>
       <c r="H25">
-        <v>13.67537705923278</v>
+        <v>11.22043045495745</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85155013784399</v>
+        <v>33.31242817810312</v>
       </c>
       <c r="N25">
         <v>0</v>
